--- a/code/MMServerEngine/others/table/tables/PeckTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/PeckTable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyuzhenelex/Documents/my/SingleServerEngine/code/MMServerEngine/others/table/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="3460" yWindow="5340" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="PeckTable" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -38,6 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -63,6 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -193,14 +210,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,6 +226,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -216,6 +234,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -263,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -305,12 +324,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -340,12 +359,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -549,24 +568,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
-    <col min="13" max="14" width="7.625" customWidth="1"/>
-    <col min="16" max="16" width="68.25" customWidth="1"/>
-    <col min="17" max="17" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="68.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -586,7 +605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -606,7 +625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -626,9 +645,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -646,9 +665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -666,9 +685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -686,9 +705,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -706,9 +725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -726,10 +745,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K10" s="1"/>
     </row>
   </sheetData>
@@ -742,16 +761,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -788,12 +807,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/MMServerEngine/others/table/tables/PeckTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/PeckTable.xlsx
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;2|2;4|3:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0;2|5;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   </si>
   <si>
     <t>limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2|2;4|3;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +572,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -630,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -650,13 +650,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -670,13 +670,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -690,13 +690,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1024</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>96</v>
@@ -710,13 +710,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2048</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>166</v>
@@ -730,13 +730,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>8888</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>666</v>

--- a/code/MMServerEngine/others/table/tables/PeckTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/PeckTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="5340" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="2700" yWindow="5940" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="PeckTable" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;2|5;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4;2|5;6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,21 @@
   </si>
   <si>
     <t>1;2|2;4|3;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2|5;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;2|5;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +583,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,19 +601,22 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -610,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -622,7 +636,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -630,18 +647,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>6</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
@@ -650,19 +670,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -670,18 +693,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>24</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -690,19 +716,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1024</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>96</v>
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -710,19 +739,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2048</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>166</v>
       </c>
       <c r="F7">
         <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -730,19 +762,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>8888</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>666</v>
       </c>
       <c r="F8">
         <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">

--- a/code/MMServerEngine/others/table/tables/PeckTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/PeckTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="5940" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="33600" windowHeight="19520"/>
   </bookViews>
   <sheets>
     <sheet name="PeckTable" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>29</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>666</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>0</v>
